--- a/data/evaluation/evaluation_Center_Spring_Beets.xlsx
+++ b/data/evaluation/evaluation_Center_Spring_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1829.07188361007</v>
+        <v>1774.596818607226</v>
       </c>
       <c r="C4" t="n">
-        <v>7100326.239618793</v>
+        <v>7294639.216907854</v>
       </c>
       <c r="D4" t="n">
-        <v>2664.64373596524</v>
+        <v>2700.858977604691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01843694306363475</v>
+        <v>-0.008425264890417949</v>
       </c>
     </row>
     <row r="5">
